--- a/public/assets/constraints.xlsx
+++ b/public/assets/constraints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Favour-Daniel\Desktop\Projects\University\ECO\data\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Favour-Daniel\Desktop\Projects\University\ECO\ECO-Website\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A622F6-56C3-40FD-85F0-7563BB3152EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DAA905-A01E-4D55-808C-6FB7F35A6D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{7CEF3897-17E7-4AAD-8D50-030D976BDBEA}"/>
+    <workbookView xWindow="345" yWindow="3045" windowWidth="28530" windowHeight="16245" xr2:uid="{7CEF3897-17E7-4AAD-8D50-030D976BDBEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated_Constraints" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>Constraint</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Cannot have floor slabs</t>
   </si>
   <si>
-    <t>User subsector is forced to be Non-residential if their sector is Non-residential</t>
-  </si>
-  <si>
     <t>Non-residential sector</t>
   </si>
   <si>
@@ -94,22 +88,22 @@
     <t>Non-residential not shown in the subsector list</t>
   </si>
   <si>
-    <t>User chooses Residential for joisted floors</t>
-  </si>
-  <si>
     <t>Residential</t>
   </si>
   <si>
     <t>Only show Timber Joists (Domestic)</t>
   </si>
   <si>
-    <t>User chooses Non-residential for joisted floors</t>
-  </si>
-  <si>
     <t>Non-residential</t>
   </si>
   <si>
     <t>Only show Timber Joists (Office)</t>
+  </si>
+  <si>
+    <t>Feature Selected</t>
+  </si>
+  <si>
+    <t>User sector is Non-residential</t>
   </si>
 </sst>
 </file>
@@ -608,10 +602,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,14 +987,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,109 +1002,109 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
